--- a/docs/02 開発環境構築/gitProject構築.xlsx
+++ b/docs/02 開発環境構築/gitProject構築.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="project生成" sheetId="1" r:id="rId1"/>
+    <sheet name="project生成コマンド" sheetId="1" r:id="rId1"/>
     <sheet name="Android Studioと連携" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>1.リモートリポジトリをローカルにクローンする。</t>
     <phoneticPr fontId="1"/>
@@ -113,22 +113,69 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6.ローカルリポジトリの変更をリモートに変更を反映させる</t>
-    <rPh sb="12" eb="14">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>追加コミット</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.ローカルリポジトリの変更をリモートリポジトリに変更を反映させる</t>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.ローカルリポジトリの変更をリモートリポジトリに変更を反映</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git push origin toita_work</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.現在のBranchを確認</t>
+    <rPh sb="2" eb="4">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. (1.)が異なる場合、、、表示が異なる場合があります。</t>
+    <rPh sb="8" eb="9">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更したいBranchに変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -388,14 +435,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>607052</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>30588</xdr:rowOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>30589</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -426,13 +473,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>540351</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>102623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -452,6 +499,201 @@
         <a:xfrm>
           <a:off x="808182" y="21336000"/>
           <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>540351</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>102623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="808182" y="32004000"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>126108</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>113082</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="808182" y="42833636"/>
+          <a:ext cx="11752381" cy="5123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>445409</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>148009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="330200"/>
+          <a:ext cx="18123809" cy="9723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>52143</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>3250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="780143" y="10450286"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>26309</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>40059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="777875" y="20320000"/>
+          <a:ext cx="18123809" cy="9723809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -784,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C89"/>
+  <dimension ref="B2:C266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView topLeftCell="A77" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -855,14 +1097,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C89" t="s">
-        <v>13</v>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C266" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -875,13 +1127,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="2.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/02 開発環境構築/gitProject構築.xlsx
+++ b/docs/02 開発環境構築/gitProject構築.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>1.リモートリポジトリをローカルにクローンする。</t>
     <phoneticPr fontId="1"/>
@@ -176,6 +176,17 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.Android statioコミット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.リモートリポジトリに反映</t>
+    <rPh sb="12" eb="14">
+      <t>ハンエイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -694,6 +705,120 @@
         <a:xfrm>
           <a:off x="777875" y="20320000"/>
           <a:ext cx="18123809" cy="9723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>26309</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>40059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="777875" y="30638750"/>
+          <a:ext cx="18123809" cy="9723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>188214</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>125714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="777875" y="40798750"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>487381</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>91131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="780143" y="52741286"/>
+          <a:ext cx="12643095" cy="7765559"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1127,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C65"/>
+  <dimension ref="B2:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1153,6 +1278,16 @@
         <v>18</v>
       </c>
     </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
